--- a/results/I3_N5_M2_T45_C100_DepLowerLeft_s0_P6_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepLowerLeft_s0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2850.510123670074</v>
+        <v>855.6336474519213</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00800013542175293</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.15095032125944</v>
+        <v>42.9010767742673</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>26.28508675195554</v>
+        <v>11.54203514052962</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.51426010076494</v>
+        <v>10.27460581818356</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2713.630000000006</v>
+        <v>606</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.5</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>5</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.35124120223184</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17.7338617375427</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.7126566934917</v>
+        <v>39.36141549125986</v>
       </c>
     </row>
     <row r="9">
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1056,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1070,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1084,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1098,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1112,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1126,197 +1071,15 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>7</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5</v>
-      </c>
-      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1419,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>167.72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
@@ -1430,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>168.645</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
@@ -1441,7 +1204,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>175.91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1452,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>167.005</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
@@ -1463,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>178.63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -1474,7 +1237,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>285.4200000000005</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
@@ -1485,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>293.7350000000006</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
@@ -1496,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>305.2100000000006</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -1507,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>310.9800000000006</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -1518,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>303.5600000000006</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
@@ -1529,7 +1292,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1540,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1551,7 +1314,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1562,7 +1325,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1573,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1584,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>103.79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23">
@@ -1595,7 +1358,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>91.44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -1606,7 +1369,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
@@ -1617,7 +1380,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>98.36499999999999</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -1628,7 +1391,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>96.53999999999999</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1639,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>174.0199999999998</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -1650,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>171.6699999999998</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -1661,7 +1424,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>188.4949999999998</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -1672,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>185.7699999999998</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31">
@@ -1683,7 +1446,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>180.9299999999998</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32">
@@ -1694,7 +1457,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>167.72</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33">
@@ -1705,7 +1468,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>168.645</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>175.91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35">
@@ -1727,7 +1490,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>167.005</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -1738,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>178.63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
@@ -1749,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>285.4200000000005</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38">
@@ -1760,7 +1523,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>293.7350000000006</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39">
@@ -1771,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>305.2100000000006</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40">
@@ -1782,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>310.9800000000006</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41">
@@ -1793,7 +1556,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>303.5600000000006</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +1603,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>67.72000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1851,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>68.64500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1862,7 +1625,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>75.91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1873,7 +1636,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>67.005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1884,7 +1647,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>78.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1895,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>185.4200000000005</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1906,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>193.7350000000006</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
@@ -1917,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>205.2100000000006</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1928,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>210.9800000000006</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -1939,7 +1702,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>203.5600000000006</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2096,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -2107,7 +1870,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2118,7 +1881,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -2129,7 +1892,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2140,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -2151,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18">
@@ -2162,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -2173,7 +1936,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -2184,7 +1947,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
@@ -2195,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -2206,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2217,7 +1980,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2228,7 +1991,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2239,7 +2002,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2250,7 +2013,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>6.025</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2294,7 +2057,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2305,7 +2068,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2313,10 +2076,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2324,10 +2087,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2335,10 +2098,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2349,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2360,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2368,133 +2131,12 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>5</v>
-      </c>
-      <c r="B17" t="n">
-        <v>2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>5</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>5</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>5</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
